--- a/MB_samples/input/assembly.xlsx
+++ b/MB_samples/input/assembly.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katerynapantiukh/Documents/1MyDisk/PhD/2022_Assembly_vs_Profiling/2022_Microbiome_Assembly_vs_Profiling/MB_samples/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8329D0-C2BA-2443-96F1-02C02122E507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFAA2BC-1CD1-1F43-B233-706DB036C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{10373764-0D80-DD48-86C7-69EEDF196C7B}"/>
+    <workbookView xWindow="23960" yWindow="500" windowWidth="14180" windowHeight="19460" xr2:uid="{10373764-0D80-DD48-86C7-69EEDF196C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$203</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1766,17 +1769,17 @@
     <t>yes</t>
   </si>
   <si>
-    <t>other name</t>
-  </si>
-  <si>
     <t>Overalp</t>
+  </si>
+  <si>
+    <t>alt name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1803,6 +1806,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1840,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1867,6 +1877,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2185,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89D76E-36ED-1D4B-997C-83AC48C015F4}">
   <dimension ref="A1:S203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201:F202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2267,161 +2280,161 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4">
-        <v>6956767</v>
+        <v>4613970</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E41" si="0">D2/109810982*100</f>
-        <v>6.3352197323943429</v>
+        <f t="shared" ref="E2:E49" si="0">D2/109810982*100</f>
+        <v>4.2017382195890027</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
+        <v>44.83</v>
       </c>
       <c r="H2" s="3">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>31.58</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="3">
-        <v>2868501</v>
+        <v>801837</v>
       </c>
       <c r="L2" s="3">
-        <v>119222</v>
+        <v>25088</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4">
-        <v>6821484</v>
+        <v>4222596</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>6.2120234932422331</v>
+        <v>3.845331243827689</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
       </c>
       <c r="H3" s="3">
-        <v>0.56999999999999995</v>
+        <v>2.59</v>
       </c>
       <c r="I3" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="3">
-        <v>4674401</v>
+        <v>2139807</v>
       </c>
       <c r="L3" s="3">
-        <v>154815</v>
+        <v>113019</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>6736937</v>
+        <v>6956767</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>6.1350302832188497</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>575</v>
+        <v>6.3352197323943429</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G4" s="3">
-        <v>89.66</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
-        <v>4.3099999999999996</v>
+        <v>10.34</v>
       </c>
       <c r="I4" s="3">
-        <v>100</v>
+        <v>31.58</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3">
-        <v>2707762</v>
+        <v>2868501</v>
       </c>
       <c r="L4" s="3">
-        <v>117891</v>
+        <v>119222</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>22</v>
@@ -2439,37 +2452,37 @@
         <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4">
-        <v>5790926</v>
+        <v>3309913</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>5.2735399452124012</v>
+        <v>3.0141912399981998</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G5" s="3">
-        <v>58.62</v>
+        <v>89.66</v>
       </c>
       <c r="H5" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -2478,70 +2491,70 @@
         <v>35</v>
       </c>
       <c r="K5" s="3">
-        <v>1636784</v>
+        <v>2013254</v>
       </c>
       <c r="L5" s="3">
-        <v>146503</v>
+        <v>103945</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>5079172</v>
+        <v>6736937</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>4.6253770866014117</v>
+        <v>6.1350302832188497</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>575</v>
       </c>
       <c r="G6" s="3">
-        <v>94.83</v>
+        <v>89.66</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3">
-        <v>4525881</v>
+        <v>2707762</v>
       </c>
       <c r="L6" s="3">
-        <v>59950</v>
+        <v>117891</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -2556,193 +2569,193 @@
         <v>25</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4">
-        <v>4613970</v>
+        <v>2821378</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>4.2017382195890027</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>574</v>
+        <v>2.5693040428324374</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G7" s="3">
-        <v>44.83</v>
+        <v>96.55</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>7.84</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3">
-        <v>801837</v>
+        <v>2286552</v>
       </c>
       <c r="L7" s="3">
-        <v>25088</v>
+        <v>119152</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
-        <v>4222596</v>
+        <v>6821484</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>3.845331243827689</v>
+        <v>6.2120234932422331</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>2.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="3">
-        <v>2139807</v>
+        <v>4674401</v>
       </c>
       <c r="L8" s="3">
-        <v>113019</v>
+        <v>154815</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4">
-        <v>3905649</v>
+        <v>3110324</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>3.5567016420998763</v>
+        <v>2.8324343734582027</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>575</v>
       </c>
       <c r="G9" s="3">
-        <v>69.48</v>
+        <v>98.28</v>
       </c>
       <c r="H9" s="3">
-        <v>10.27</v>
+        <v>0.86</v>
       </c>
       <c r="I9" s="3">
-        <v>81.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3">
-        <v>4752915</v>
+        <v>2728999</v>
       </c>
       <c r="L9" s="3">
-        <v>103269</v>
+        <v>75601</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2807,269 +2820,269 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>3309913</v>
+        <v>3221298</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>3.0141912399981998</v>
+        <v>2.9334934824642582</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G11" s="3">
-        <v>89.66</v>
+        <v>100</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K11" s="3">
-        <v>2013254</v>
+        <v>3896139</v>
       </c>
       <c r="L11" s="3">
-        <v>103945</v>
+        <v>153171</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4">
-        <v>3221298</v>
+        <v>1934886</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>2.9334934824642582</v>
+        <v>1.7620150232332865</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>98.28</v>
       </c>
       <c r="H12" s="3">
-        <v>1.72</v>
+        <v>6.74</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3">
-        <v>3896139</v>
+        <v>2969514</v>
       </c>
       <c r="L12" s="3">
-        <v>153171</v>
+        <v>181200</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
-        <v>3110324</v>
+        <v>1653205</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>2.8324343734582027</v>
+        <v>1.5055006064876097</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G13" s="3">
-        <v>98.28</v>
+        <v>75.86</v>
       </c>
       <c r="H13" s="3">
-        <v>0.86</v>
+        <v>3.45</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3">
-        <v>2728999</v>
+        <v>2684736</v>
       </c>
       <c r="L13" s="3">
-        <v>75601</v>
+        <v>58965</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4">
-        <v>2821378</v>
+        <v>538804</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>2.5693040428324374</v>
+        <v>0.49066495006847316</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G14" s="3">
-        <v>96.55</v>
+        <v>32.76</v>
       </c>
       <c r="H14" s="3">
-        <v>7.84</v>
+        <v>6.9</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3">
-        <v>2286552</v>
+        <v>816940</v>
       </c>
       <c r="L14" s="3">
-        <v>119152</v>
+        <v>68389</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
-        <v>2223035</v>
+        <v>5079172</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>2.0244195612420626</v>
+        <v>4.6253770866014117</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G15" s="3">
-        <v>98.28</v>
+        <v>94.83</v>
       </c>
       <c r="H15" s="3">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -3078,49 +3091,49 @@
         <v>30</v>
       </c>
       <c r="K15" s="3">
-        <v>3315504</v>
+        <v>4525881</v>
       </c>
       <c r="L15" s="3">
-        <v>58271</v>
+        <v>59950</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4">
-        <v>1934886</v>
+        <v>2223035</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>1.7620150232332865</v>
+        <v>2.0244195612420626</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>574</v>
@@ -3129,19 +3142,19 @@
         <v>98.28</v>
       </c>
       <c r="H16" s="3">
-        <v>6.74</v>
+        <v>3.61</v>
       </c>
       <c r="I16" s="3">
-        <v>23.08</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K16" s="3">
-        <v>2969514</v>
+        <v>3315504</v>
       </c>
       <c r="L16" s="3">
-        <v>181200</v>
+        <v>58271</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>22</v>
@@ -3153,55 +3166,55 @@
         <v>57</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4">
-        <v>1921290</v>
+        <v>321785</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>1.7496337479251394</v>
+        <v>0.29303535415064408</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G17" s="3">
-        <v>88.09</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>8.6199999999999992</v>
+        <v>3.45</v>
       </c>
       <c r="I17" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17" s="3">
-        <v>3103928</v>
+        <v>2078468</v>
       </c>
       <c r="L17" s="3">
-        <v>112653</v>
+        <v>135059</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>22</v>
@@ -3213,175 +3226,175 @@
         <v>57</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4">
-        <v>1653205</v>
+        <v>3905649</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>1.5055006064876097</v>
+        <v>3.5567016420998763</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G18" s="3">
-        <v>75.86</v>
+        <v>69.48</v>
       </c>
       <c r="H18" s="3">
-        <v>3.45</v>
+        <v>10.27</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3">
-        <v>2684736</v>
+        <v>4752915</v>
       </c>
       <c r="L18" s="3">
-        <v>58965</v>
+        <v>103269</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="D19" s="4">
-        <v>775237</v>
+        <v>311515</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>0.70597401633290202</v>
+        <v>0.28368291980122717</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G19" s="3">
-        <v>97.49</v>
+        <v>82.76</v>
       </c>
       <c r="H19" s="3">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="I19" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3">
-        <v>2975923</v>
+        <v>2150426</v>
       </c>
       <c r="L19" s="3">
-        <v>121834</v>
+        <v>19819</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4">
-        <v>680866</v>
+        <v>288876</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>0.620034524415782</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>574</v>
+        <v>0.26306658472464983</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G20" s="3">
-        <v>87.93</v>
+        <v>94.36</v>
       </c>
       <c r="H20" s="3">
-        <v>1.72</v>
+        <v>14.95</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K20" s="3">
-        <v>2772913</v>
+        <v>2357258</v>
       </c>
       <c r="L20" s="3">
-        <v>155591</v>
+        <v>5500</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>22</v>
@@ -3393,16 +3406,16 @@
         <v>57</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -3467,221 +3480,221 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4">
-        <v>539766</v>
+        <v>5790926</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>0.4915410008809501</v>
+        <v>5.2735399452124012</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>58.62</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3">
-        <v>2707763</v>
+        <v>1636784</v>
       </c>
       <c r="L22" s="3">
-        <v>112358</v>
+        <v>146503</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4">
-        <v>538804</v>
+        <v>680866</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>0.49066495006847316</v>
+        <v>0.620034524415782</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G23" s="3">
-        <v>32.76</v>
+        <v>87.93</v>
       </c>
       <c r="H23" s="3">
-        <v>6.9</v>
+        <v>1.72</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K23" s="3">
-        <v>816940</v>
+        <v>2772913</v>
       </c>
       <c r="L23" s="3">
-        <v>68389</v>
+        <v>155591</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D24" s="4">
-        <v>538184</v>
+        <v>471212</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>0.49010034351573323</v>
+        <v>0.42911190795106452</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G24" s="3">
-        <v>93.1</v>
+        <v>93.94</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>11.21</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K24" s="3">
-        <v>1169115</v>
+        <v>2226719</v>
       </c>
       <c r="L24" s="3">
-        <v>73216</v>
+        <v>23494</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4">
-        <v>471212</v>
+        <v>462026</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>0.42911190795106452</v>
+        <v>0.42074662441321214</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G25" s="3">
-        <v>93.94</v>
+        <v>87.93</v>
       </c>
       <c r="H25" s="3">
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K25" s="3">
-        <v>2226719</v>
+        <v>1723513</v>
       </c>
       <c r="L25" s="3">
-        <v>23494</v>
+        <v>155838</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>22</v>
@@ -3693,55 +3706,55 @@
         <v>57</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D26" s="4">
-        <v>470543</v>
+        <v>334396</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>0.42850267926754354</v>
+        <v>0.30451963356451911</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G26" s="3">
-        <v>89.66</v>
+        <v>87.15</v>
       </c>
       <c r="H26" s="3">
-        <v>2.59</v>
+        <v>2.35</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>26.09</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="3">
-        <v>2534271</v>
+        <v>1955264</v>
       </c>
       <c r="L26" s="3">
-        <v>39248</v>
+        <v>35770</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>22</v>
@@ -3753,34 +3766,34 @@
         <v>57</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4">
-        <v>462026</v>
+        <v>306828</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>0.42074662441321214</v>
+        <v>0.2794146763936598</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>574</v>
@@ -3789,7 +3802,7 @@
         <v>87.93</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -3798,10 +3811,10 @@
         <v>35</v>
       </c>
       <c r="K27" s="3">
-        <v>1723513</v>
+        <v>1122947</v>
       </c>
       <c r="L27" s="3">
-        <v>155838</v>
+        <v>62759</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>22</v>
@@ -3813,55 +3826,55 @@
         <v>57</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D28" s="4">
-        <v>458679</v>
+        <v>391899</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>0.4176986596841471</v>
+        <v>0.35688507001968167</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G28" s="3">
-        <v>96.55</v>
+        <v>86.52</v>
       </c>
       <c r="H28" s="3">
-        <v>3.45</v>
+        <v>5.66</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3">
-        <v>2527449</v>
+        <v>1594103</v>
       </c>
       <c r="L28" s="3">
-        <v>32493</v>
+        <v>6520</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>22</v>
@@ -3873,40 +3886,40 @@
         <v>57</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D29" s="4">
-        <v>454474</v>
+        <v>538184</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>0.41386935233854838</v>
+        <v>0.49010034351573323</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G29" s="3">
-        <v>94.12</v>
+        <v>93.1</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -3918,250 +3931,250 @@
         <v>30</v>
       </c>
       <c r="K29" s="3">
-        <v>1954909</v>
+        <v>1169115</v>
       </c>
       <c r="L29" s="3">
-        <v>25759</v>
+        <v>73216</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4">
-        <v>391899</v>
+        <v>539766</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>0.35688507001968167</v>
+        <v>0.4915410008809501</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G30" s="3">
-        <v>86.52</v>
+        <v>100</v>
       </c>
       <c r="H30" s="3">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K30" s="3">
-        <v>1594103</v>
+        <v>2707763</v>
       </c>
       <c r="L30" s="3">
-        <v>6520</v>
+        <v>112358</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4">
-        <v>363568</v>
+        <v>355502</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>0.3310852825266602</v>
+        <v>0.32373993340666052</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G31" s="3">
-        <v>91.07</v>
+        <v>91.38</v>
       </c>
       <c r="H31" s="3">
-        <v>2.59</v>
+        <v>5.24</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K31" s="3">
-        <v>2264174</v>
+        <v>2016367</v>
       </c>
       <c r="L31" s="3">
-        <v>19873</v>
+        <v>19576</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D32" s="4">
-        <v>355502</v>
+        <v>336070</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>0.32373993340666052</v>
+        <v>0.30604407125691668</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G32" s="3">
-        <v>91.38</v>
+        <v>84.48</v>
       </c>
       <c r="H32" s="3">
-        <v>5.24</v>
+        <v>41.38</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K32" s="3">
-        <v>2016367</v>
+        <v>2166623</v>
       </c>
       <c r="L32" s="3">
-        <v>19576</v>
+        <v>14561</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4">
-        <v>336070</v>
+        <v>1921290</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>0.30604407125691668</v>
+        <v>1.7496337479251394</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G33" s="3">
-        <v>84.48</v>
+        <v>88.09</v>
       </c>
       <c r="H33" s="3">
-        <v>41.38</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="I33" s="3">
-        <v>3.23</v>
+        <v>40</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K33" s="3">
-        <v>2166623</v>
+        <v>3103928</v>
       </c>
       <c r="L33" s="3">
-        <v>14561</v>
+        <v>112653</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>22</v>
@@ -4173,223 +4186,223 @@
         <v>57</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4">
-        <v>334396</v>
+        <v>285525</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>0.30451963356451911</v>
+        <v>0.26001497737266388</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G34" s="3">
-        <v>87.15</v>
+        <v>100</v>
       </c>
       <c r="H34" s="3">
-        <v>2.35</v>
+        <v>82.92</v>
       </c>
       <c r="I34" s="3">
-        <v>26.09</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K34" s="3">
-        <v>1955264</v>
+        <v>3380755</v>
       </c>
       <c r="L34" s="3">
-        <v>35770</v>
+        <v>9036</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D35" s="4">
-        <v>321785</v>
+        <v>87641</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>0.29303535415064408</v>
+        <v>7.9810778852701644E-2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>61.52</v>
       </c>
       <c r="H35" s="3">
-        <v>3.45</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K35" s="3">
-        <v>2078468</v>
+        <v>1008971</v>
       </c>
       <c r="L35" s="3">
-        <v>135059</v>
+        <v>4463</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D36" s="4">
-        <v>311515</v>
+        <v>363568</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>0.28368291980122717</v>
+        <v>0.3310852825266602</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G36" s="3">
-        <v>82.76</v>
+        <v>91.07</v>
       </c>
       <c r="H36" s="3">
-        <v>1.72</v>
+        <v>2.59</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K36" s="3">
-        <v>2150426</v>
+        <v>2264174</v>
       </c>
       <c r="L36" s="3">
-        <v>19819</v>
+        <v>19873</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4">
-        <v>306828</v>
+        <v>470543</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>0.2794146763936598</v>
+        <v>0.42850267926754354</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G37" s="3">
-        <v>87.93</v>
+        <v>89.66</v>
       </c>
       <c r="H37" s="3">
-        <v>8.6199999999999992</v>
+        <v>2.59</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -4398,10 +4411,10 @@
         <v>35</v>
       </c>
       <c r="K37" s="3">
-        <v>1122947</v>
+        <v>2534271</v>
       </c>
       <c r="L37" s="3">
-        <v>62759</v>
+        <v>39248</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>22</v>
@@ -4413,55 +4426,55 @@
         <v>57</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="D38" s="4">
-        <v>288876</v>
+        <v>775237</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>0.26306658472464983</v>
+        <v>0.70597401633290202</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G38" s="3">
-        <v>94.36</v>
+        <v>97.49</v>
       </c>
       <c r="H38" s="3">
-        <v>14.95</v>
+        <v>3.45</v>
       </c>
       <c r="I38" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K38" s="3">
-        <v>2357258</v>
+        <v>2975923</v>
       </c>
       <c r="L38" s="3">
-        <v>5500</v>
+        <v>121834</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>22</v>
@@ -4476,157 +4489,157 @@
         <v>81</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4">
-        <v>285525</v>
+        <v>454474</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="0"/>
-        <v>0.26001497737266388</v>
+        <v>0.41386935233854838</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G39" s="3">
-        <v>100</v>
+        <v>94.12</v>
       </c>
       <c r="H39" s="3">
-        <v>82.92</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K39" s="3">
-        <v>3380755</v>
+        <v>1954909</v>
       </c>
       <c r="L39" s="3">
-        <v>9036</v>
+        <v>25759</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D40" s="4">
-        <v>87641</v>
+        <v>458679</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
-        <v>7.9810778852701644E-2</v>
+        <v>0.4176986596841471</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G40" s="3">
-        <v>61.52</v>
+        <v>96.55</v>
       </c>
       <c r="H40" s="3">
-        <v>4.5999999999999996</v>
+        <v>3.45</v>
       </c>
       <c r="I40" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K40" s="3">
-        <v>1008971</v>
+        <v>2527449</v>
       </c>
       <c r="L40" s="3">
-        <v>4463</v>
+        <v>32493</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D41" s="4">
-        <v>8566</v>
+        <v>760629</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="0"/>
-        <v>7.8006769851124728E-3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>574</v>
+        <v>0.69267115742576646</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G41" s="3">
-        <v>17.239999999999998</v>
+        <v>98.28</v>
       </c>
       <c r="H41" s="3">
         <v>3.45</v>
@@ -4635,52 +4648,58 @@
         <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K41" s="3">
-        <v>79700</v>
+        <v>2056842</v>
       </c>
       <c r="L41" s="3">
-        <v>10509</v>
+        <v>205045</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="F42" s="3" t="s">
-        <v>574</v>
+        <v>183</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1175509</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0704840067817625</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G42" s="3">
-        <v>98.28</v>
+        <v>96.55</v>
       </c>
       <c r="H42" s="3">
         <v>3.45</v>
@@ -4692,10 +4711,10 @@
         <v>30</v>
       </c>
       <c r="K42" s="3">
-        <v>2056842</v>
+        <v>2778828</v>
       </c>
       <c r="L42" s="3">
-        <v>205045</v>
+        <v>228946</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>22</v>
@@ -4707,142 +4726,160 @@
         <v>57</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="D43" s="4">
+        <v>183592</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16718910682357799</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G43" s="3">
-        <v>96.55</v>
+        <v>94.83</v>
       </c>
       <c r="H43" s="3">
-        <v>3.45</v>
+        <v>6.9</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K43" s="3">
-        <v>2778828</v>
+        <v>1959959</v>
       </c>
       <c r="L43" s="3">
-        <v>228946</v>
+        <v>29070</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1235400</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>1.125024089120704</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G44" s="3">
-        <v>94.83</v>
+        <v>98.28</v>
       </c>
       <c r="H44" s="3">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K44" s="3">
-        <v>1959959</v>
+        <v>1989445</v>
       </c>
       <c r="L44" s="3">
-        <v>29070</v>
+        <v>72285</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="D45" s="4">
+        <v>785462</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71528547117445873</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G45" s="3">
-        <v>98.28</v>
+        <v>97.41</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -4854,103 +4891,115 @@
         <v>30</v>
       </c>
       <c r="K45" s="3">
-        <v>1989445</v>
+        <v>4922753</v>
       </c>
       <c r="L45" s="3">
-        <v>72285</v>
+        <v>28781</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="F46" s="3" t="s">
-        <v>574</v>
+        <v>201</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1523373</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3872683517209601</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G46" s="3">
-        <v>97.41</v>
+        <v>84.48</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3">
-        <v>4922753</v>
+        <v>2733547</v>
       </c>
       <c r="L46" s="3">
-        <v>28781</v>
+        <v>67362</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="F47" s="3" t="s">
-        <v>574</v>
+        <v>204</v>
+      </c>
+      <c r="D47" s="4">
+        <v>717030</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65296747824366053</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="G47" s="3">
-        <v>84.48</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>1.72</v>
@@ -4959,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K47" s="3">
-        <v>2733547</v>
+        <v>2614393</v>
       </c>
       <c r="L47" s="3">
-        <v>67362</v>
+        <v>72852</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>22</v>
@@ -4983,64 +5032,70 @@
         <v>59</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="4">
+        <v>8566</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8006769851124728E-3</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="H48" s="3">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K48" s="3">
-        <v>2614393</v>
+        <v>79700</v>
       </c>
       <c r="L48" s="3">
-        <v>72852</v>
+        <v>10509</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -5053,7 +5108,13 @@
       <c r="C49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4">
+        <v>681387</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62050897605122957</v>
+      </c>
       <c r="F49" s="3" t="s">
         <v>574</v>
       </c>
@@ -5111,7 +5172,7 @@
         <v>13228016</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" ref="E50:E75" si="1">D50/102273989*100</f>
+        <f t="shared" ref="E50:E81" si="1">D50/102273989*100</f>
         <v>12.933900524795213</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -5355,7 +5416,7 @@
         <v>3.5327232616300908</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G54" s="3">
         <v>94.83</v>
@@ -5475,7 +5536,7 @@
         <v>3.7486256647327991</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G56" s="3">
         <v>80.25</v>
@@ -6667,7 +6728,13 @@
       <c r="C76" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4">
+        <v>168540</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16479263363825578</v>
+      </c>
       <c r="F76" s="3" t="s">
         <v>574</v>
       </c>
@@ -6725,7 +6792,7 @@
         <v>270589</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" ref="E77:E84" si="2">D77/102273989*100</f>
+        <f t="shared" si="1"/>
         <v>0.26457264710776074</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -6785,7 +6852,7 @@
         <v>828718</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81029204796148124</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -6845,7 +6912,7 @@
         <v>1357727</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3275389111888458</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -6905,7 +6972,7 @@
         <v>1037724</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0146509490306475</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -6965,7 +7032,7 @@
         <v>2194368</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1455777969117835</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -7025,7 +7092,7 @@
         <v>143170</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E82:E113" si="2">D82/102273989*100</f>
         <v>0.13998671744386543</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -7201,7 +7268,13 @@
       <c r="C85" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4">
+        <v>174230</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17035612055769137</v>
+      </c>
       <c r="F85" s="3" t="s">
         <v>574</v>
       </c>
@@ -7259,7 +7332,7 @@
         <v>338694</v>
       </c>
       <c r="E86" s="5">
-        <f>D86/102273989*100</f>
+        <f t="shared" si="2"/>
         <v>0.33116338114082949</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -7315,7 +7388,13 @@
       <c r="C87" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4">
+        <v>607938</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="2"/>
+        <v>0.59442093336165858</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>574</v>
       </c>
@@ -7369,7 +7448,13 @@
       <c r="C88" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4">
+        <v>2088965</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0425183572335288</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>574</v>
       </c>
@@ -7423,7 +7508,13 @@
       <c r="C89" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4">
+        <v>687810</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67251703656537742</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>574</v>
       </c>
@@ -7477,7 +7568,13 @@
       <c r="C90" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4">
+        <v>737672</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72127039065622056</v>
+      </c>
       <c r="F90" s="3" t="s">
         <v>574</v>
       </c>
@@ -7531,7 +7628,13 @@
       <c r="C91" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4">
+        <v>926351</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90575424803270366</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>574</v>
       </c>
@@ -7585,9 +7688,15 @@
       <c r="C92" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4">
+        <v>1913963</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8714074015437103</v>
+      </c>
       <c r="F92" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G92" s="3">
         <v>88.01</v>
@@ -7639,7 +7748,13 @@
       <c r="C93" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4">
+        <v>1836907</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7960646865939689</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>574</v>
       </c>
@@ -7697,7 +7812,7 @@
         <v>421902</v>
       </c>
       <c r="E94" s="5">
-        <f>D94/102273989*100</f>
+        <f t="shared" si="2"/>
         <v>0.41252131077042475</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -7757,7 +7872,7 @@
         <v>218985</v>
       </c>
       <c r="E95" s="5">
-        <f>D95/102273989*100</f>
+        <f t="shared" si="2"/>
         <v>0.21411602514105516</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -7813,7 +7928,13 @@
       <c r="C96" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4">
+        <v>414263</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40505215847208226</v>
+      </c>
       <c r="F96" s="3" t="s">
         <v>574</v>
       </c>
@@ -7867,7 +7988,13 @@
       <c r="C97" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4">
+        <v>2299272</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2481493314981584</v>
+      </c>
       <c r="F97" s="3" t="s">
         <v>574</v>
       </c>
@@ -7925,11 +8052,11 @@
         <v>200586</v>
       </c>
       <c r="E98" s="5">
-        <f>D98/102273989*100</f>
+        <f t="shared" si="2"/>
         <v>0.1961261137472598</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G98" s="3">
         <v>70.92</v>
@@ -7981,7 +8108,13 @@
       <c r="C99" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4">
+        <v>881895</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86228669539818192</v>
+      </c>
       <c r="F99" s="3" t="s">
         <v>574</v>
       </c>
@@ -8035,7 +8168,13 @@
       <c r="C100" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4">
+        <v>479401</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="2"/>
+        <v>0.46874186162817993</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>574</v>
       </c>
@@ -8089,7 +8228,13 @@
       <c r="C101" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4">
+        <v>348919</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34116103557865529</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>574</v>
       </c>
@@ -8143,7 +8288,13 @@
       <c r="C102" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4">
+        <v>262467</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25663123396898108</v>
+      </c>
       <c r="F102" s="3" t="s">
         <v>574</v>
       </c>
@@ -8197,7 +8348,13 @@
       <c r="C103" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4">
+        <v>612272</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="2"/>
+        <v>0.59865856997129541</v>
+      </c>
       <c r="F103" s="3" t="s">
         <v>574</v>
       </c>
@@ -8251,7 +8408,13 @@
       <c r="C104" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4">
+        <v>331284</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.32391813719126572</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>574</v>
       </c>
@@ -8309,7 +8472,7 @@
         <v>177142</v>
       </c>
       <c r="E105" s="5">
-        <f>D105/102273989*100</f>
+        <f t="shared" si="2"/>
         <v>0.17320337432032692</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -8365,7 +8528,13 @@
       <c r="C106" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4">
+        <v>764761</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="2"/>
+        <v>0.74775708611502378</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>574</v>
       </c>
@@ -8419,7 +8588,13 @@
       <c r="C107" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D107" s="4"/>
+      <c r="D107" s="4">
+        <v>258307</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25256372859378745</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>574</v>
       </c>
@@ -8473,9 +8648,15 @@
       <c r="C108" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4">
+        <v>1025567</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="2"/>
+        <v>1.002764251231073</v>
+      </c>
       <c r="F108" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G108" s="3">
         <v>93.81</v>
@@ -8527,7 +8708,13 @@
       <c r="C109" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4">
+        <v>469674</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45923113451651915</v>
+      </c>
       <c r="F109" s="3" t="s">
         <v>574</v>
       </c>
@@ -8581,7 +8768,13 @@
       <c r="C110" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D110" s="4"/>
+      <c r="D110" s="4">
+        <v>710805</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69500075918618953</v>
+      </c>
       <c r="F110" s="3" t="s">
         <v>574</v>
       </c>
@@ -8635,7 +8828,13 @@
       <c r="C111" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D111" s="4"/>
+      <c r="D111" s="4">
+        <v>3254476</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1821150537112617</v>
+      </c>
       <c r="F111" s="3" t="s">
         <v>575</v>
       </c>
@@ -8689,7 +8888,13 @@
       <c r="C112" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4">
+        <v>877429</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85791999371413985</v>
+      </c>
       <c r="F112" s="3" t="s">
         <v>574</v>
       </c>
@@ -8743,7 +8948,13 @@
       <c r="C113" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D113" s="4"/>
+      <c r="D113" s="4">
+        <v>180963</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17693941711807096</v>
+      </c>
       <c r="F113" s="3" t="s">
         <v>574</v>
       </c>
@@ -8797,7 +9008,13 @@
       <c r="C114" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4">
+        <v>108762</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" ref="E114:E145" si="3">D114/102273989*100</f>
+        <v>0.10634375471558072</v>
+      </c>
       <c r="F114" s="3" t="s">
         <v>574</v>
       </c>
@@ -8851,9 +9068,15 @@
       <c r="C115" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4">
+        <v>556620</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="3"/>
+        <v>0.54424395238949752</v>
+      </c>
       <c r="F115" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G115" s="3">
         <v>98.28</v>
@@ -8905,7 +9128,13 @@
       <c r="C116" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4">
+        <v>1231094</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2037215053770904</v>
+      </c>
       <c r="F116" s="3" t="s">
         <v>574</v>
       </c>
@@ -8959,7 +9188,13 @@
       <c r="C117" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4">
+        <v>1328193</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2986615785564011</v>
+      </c>
       <c r="F117" s="3" t="s">
         <v>574</v>
       </c>
@@ -9013,7 +9248,13 @@
       <c r="C118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4">
+        <v>555633</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="3"/>
+        <v>0.54327889762860426</v>
+      </c>
       <c r="F118" s="3" t="s">
         <v>574</v>
       </c>
@@ -9067,7 +9308,13 @@
       <c r="C119" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D119" s="4"/>
+      <c r="D119" s="4">
+        <v>437314</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="3"/>
+        <v>0.42759063597294517</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>574</v>
       </c>
@@ -9121,7 +9368,13 @@
       <c r="C120" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D120" s="4"/>
+      <c r="D120" s="4">
+        <v>516285</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="3"/>
+        <v>0.50480577226727708</v>
+      </c>
       <c r="F120" s="3" t="s">
         <v>574</v>
       </c>
@@ -9175,9 +9428,15 @@
       <c r="C121" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D121" s="4"/>
+      <c r="D121" s="4">
+        <v>442741</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43289697050928561</v>
+      </c>
       <c r="F121" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G121" s="3">
         <v>77.510000000000005</v>
@@ -9233,7 +9492,7 @@
         <v>510968</v>
       </c>
       <c r="E122" s="5">
-        <f>D122/102273989*100</f>
+        <f t="shared" si="3"/>
         <v>0.49960699195960762</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -9289,7 +9548,13 @@
       <c r="C123" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4">
+        <v>2258261</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2080501817524691</v>
+      </c>
       <c r="F123" s="3" t="s">
         <v>575</v>
       </c>
@@ -9343,9 +9608,15 @@
       <c r="C124" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4">
+        <v>745125</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="3"/>
+        <v>0.72855767853153741</v>
+      </c>
       <c r="F124" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G124" s="3">
         <v>87.15</v>
@@ -9397,7 +9668,13 @@
       <c r="C125" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4">
+        <v>1593064</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5576433613047007</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>574</v>
       </c>
@@ -9451,7 +9728,13 @@
       <c r="C126" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D126" s="4"/>
+      <c r="D126" s="4">
+        <v>201860</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="3"/>
+        <v>0.19737178726841287</v>
+      </c>
       <c r="F126" s="3" t="s">
         <v>574</v>
       </c>
@@ -9505,7 +9788,13 @@
       <c r="C127" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D127" s="4"/>
+      <c r="D127" s="4">
+        <v>787514</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77000418943275983</v>
+      </c>
       <c r="F127" s="3" t="s">
         <v>575</v>
       </c>
@@ -9559,7 +9848,13 @@
       <c r="C128" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="4"/>
+      <c r="D128" s="4">
+        <v>419116</v>
+      </c>
+      <c r="E128" s="5">
+        <f t="shared" si="3"/>
+        <v>0.40979725548790319</v>
+      </c>
       <c r="F128" s="3" t="s">
         <v>574</v>
       </c>
@@ -9613,7 +9908,13 @@
       <c r="C129" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4">
+        <v>2525326</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4691771824798971</v>
+      </c>
       <c r="F129" s="3" t="s">
         <v>574</v>
       </c>
@@ -9667,7 +9968,13 @@
       <c r="C130" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4">
+        <v>2720987</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6604878000798422</v>
+      </c>
       <c r="F130" s="3" t="s">
         <v>574</v>
       </c>
@@ -9945,7 +10252,7 @@
       </c>
       <c r="D135" s="4"/>
       <c r="F135" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G135" s="3">
         <v>98.28</v>
@@ -9999,7 +10306,7 @@
       </c>
       <c r="D136" s="4"/>
       <c r="F136" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G136" s="3">
         <v>98.28</v>
@@ -10745,101 +11052,101 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>481</v>
+        <v>42</v>
       </c>
       <c r="D150" s="4">
-        <v>15703177</v>
+        <v>7829463</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" ref="E150:E181" si="3">D150/108961838*100</f>
-        <v>14.411630060792477</v>
+        <f t="shared" ref="E150:E181" si="4">D150/108961838*100</f>
+        <v>7.1855092973009498</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G150" s="3">
-        <v>75.239999999999995</v>
+        <v>29.31</v>
       </c>
       <c r="H150" s="3">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="I150" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K150" s="3">
-        <v>3579343</v>
+        <v>967495</v>
       </c>
       <c r="L150" s="3">
-        <v>85392</v>
+        <v>65439</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R150" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>481</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
       <c r="D151" s="4">
-        <v>14896918</v>
+        <v>15703177</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="3"/>
-        <v>13.671683842190694</v>
+        <f t="shared" si="4"/>
+        <v>14.411630060792477</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G151" s="3">
-        <v>71.569999999999993</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="H151" s="3">
-        <v>19.91</v>
+        <v>2.59</v>
       </c>
       <c r="I151" s="3">
-        <v>70.83</v>
+        <v>100</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K151" s="3">
-        <v>5250542</v>
+        <v>3579343</v>
       </c>
       <c r="L151" s="3">
-        <v>55944</v>
+        <v>85392</v>
       </c>
       <c r="M151" s="3" t="s">
         <v>22</v>
@@ -10857,94 +11164,94 @@
         <v>52</v>
       </c>
       <c r="R151" s="3" t="s">
-        <v>483</v>
+        <v>53</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D152" s="8">
-        <v>10174182</v>
-      </c>
-      <c r="E152" s="9">
-        <f t="shared" si="3"/>
-        <v>9.3373810379373374</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G152" s="7">
-        <v>93.1</v>
-      </c>
-      <c r="H152" s="7">
-        <v>5.17</v>
-      </c>
-      <c r="I152" s="7">
-        <v>0</v>
-      </c>
-      <c r="J152" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K152" s="7">
-        <v>3203587</v>
-      </c>
-      <c r="L152" s="7">
-        <v>72664</v>
-      </c>
-      <c r="M152" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N152" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O152" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P152" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q152" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R152" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S152" s="7" t="s">
-        <v>95</v>
+      <c r="C152" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D152" s="4">
+        <v>10162222</v>
+      </c>
+      <c r="E152" s="5">
+        <f t="shared" si="4"/>
+        <v>9.3264047179527196</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G152" s="3">
+        <v>100</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="3">
+        <v>3124120</v>
+      </c>
+      <c r="L152" s="3">
+        <v>198839</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D153" s="4">
-        <v>10162222</v>
+        <v>2185146</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="3"/>
-        <v>9.3264047179527196</v>
+        <f t="shared" si="4"/>
+        <v>2.005423219824908</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G153" s="3">
-        <v>100</v>
+        <v>68.97</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
@@ -10953,73 +11260,73 @@
         <v>0</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K153" s="3">
-        <v>3124120</v>
+        <v>1061122</v>
       </c>
       <c r="L153" s="3">
-        <v>198839</v>
+        <v>61445</v>
       </c>
       <c r="M153" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="R153" s="3" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D154" s="4">
-        <v>9315064</v>
+        <v>14896918</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="3"/>
-        <v>8.5489233395640767</v>
+        <f t="shared" si="4"/>
+        <v>13.671683842190694</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G154" s="3">
-        <v>98.28</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="H154" s="3">
-        <v>5.17</v>
+        <v>19.91</v>
       </c>
       <c r="I154" s="3">
-        <v>0</v>
+        <v>70.83</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K154" s="3">
-        <v>4571170</v>
+        <v>5250542</v>
       </c>
       <c r="L154" s="3">
-        <v>82791</v>
+        <v>55944</v>
       </c>
       <c r="M154" s="3" t="s">
         <v>22</v>
@@ -11034,73 +11341,73 @@
         <v>25</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>32</v>
+        <v>483</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>379</v>
+        <v>42</v>
       </c>
       <c r="D155" s="4">
-        <v>8531609</v>
+        <v>2149344</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="3"/>
-        <v>7.8299055491336338</v>
+        <f t="shared" si="4"/>
+        <v>1.9725658445666088</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G155" s="3">
-        <v>98.28</v>
+        <v>22.07</v>
       </c>
       <c r="H155" s="3">
-        <v>6.9</v>
+        <v>5.12</v>
       </c>
       <c r="I155" s="3">
-        <v>0</v>
+        <v>85.71</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K155" s="3">
-        <v>2217157</v>
+        <v>691063</v>
       </c>
       <c r="L155" s="3">
-        <v>93380</v>
+        <v>16161</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>379</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
@@ -11117,7 +11424,7 @@
         <v>7983421</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3268046377852034</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -11165,26 +11472,26 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="D157" s="4">
-        <v>7829463</v>
+        <v>2770233</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="3"/>
-        <v>7.1855092973009498</v>
+        <f t="shared" si="4"/>
+        <v>2.5423882809318985</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G157" s="3">
-        <v>29.31</v>
+        <v>98.28</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
@@ -11193,73 +11500,73 @@
         <v>0</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K157" s="3">
-        <v>967495</v>
+        <v>1886083</v>
       </c>
       <c r="L157" s="3">
-        <v>65439</v>
+        <v>63947</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>42</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>491</v>
+        <v>40</v>
       </c>
       <c r="D158" s="4">
-        <v>7254407</v>
+        <v>9315064</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="3"/>
-        <v>6.6577502115924299</v>
+        <f t="shared" si="4"/>
+        <v>8.5489233395640767</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>575</v>
       </c>
       <c r="G158" s="3">
-        <v>95.92</v>
+        <v>98.28</v>
       </c>
       <c r="H158" s="3">
-        <v>8.0500000000000007</v>
+        <v>5.17</v>
       </c>
       <c r="I158" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K158" s="3">
-        <v>6248871</v>
+        <v>4571170</v>
       </c>
       <c r="L158" s="3">
-        <v>78020</v>
+        <v>82791</v>
       </c>
       <c r="M158" s="3" t="s">
         <v>22</v>
@@ -11274,112 +11581,112 @@
         <v>25</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>491</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="A159" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D159" s="8">
-        <v>6267575</v>
-      </c>
-      <c r="E159" s="9">
-        <f t="shared" si="3"/>
-        <v>5.7520826695305924</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G159" s="7">
-        <v>93.1</v>
-      </c>
-      <c r="H159" s="7">
-        <v>0</v>
-      </c>
-      <c r="I159" s="7">
-        <v>0</v>
-      </c>
-      <c r="J159" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K159" s="7">
-        <v>2046239</v>
-      </c>
-      <c r="L159" s="7">
-        <v>84624</v>
-      </c>
-      <c r="M159" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N159" s="7" t="s">
+      <c r="C159" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="4">
+        <v>2979373</v>
+      </c>
+      <c r="E159" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7343270402615638</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G159" s="3">
+        <v>87.07</v>
+      </c>
+      <c r="H159" s="3">
+        <v>15.83</v>
+      </c>
+      <c r="I159" s="3">
+        <v>35.71</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" s="3">
+        <v>2281914</v>
+      </c>
+      <c r="L159" s="3">
+        <v>29841</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O159" s="7" t="s">
+      <c r="O159" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P159" s="7" t="s">
+      <c r="P159" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q159" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="R159" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S159" s="7" t="s">
-        <v>138</v>
+      <c r="Q159" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D160" s="4">
-        <v>6139794</v>
+        <v>5944122</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="3"/>
-        <v>5.6348113364240424</v>
+        <f t="shared" si="4"/>
+        <v>5.4552328678596629</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G160" s="3">
-        <v>95.4</v>
+        <v>85.3</v>
       </c>
       <c r="H160" s="3">
-        <v>40.86</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="I160" s="3">
-        <v>48.65</v>
+        <v>50</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K160" s="3">
-        <v>4201582</v>
+        <v>5095032</v>
       </c>
       <c r="L160" s="3">
-        <v>104572</v>
+        <v>111896</v>
       </c>
       <c r="M160" s="3" t="s">
         <v>22</v>
@@ -11394,232 +11701,232 @@
         <v>25</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="R160" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="D161" s="4">
-        <v>5944122</v>
+        <v>1968190</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="3"/>
-        <v>5.4552328678596629</v>
+        <f t="shared" si="4"/>
+        <v>1.8063113068999441</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G161" s="3">
-        <v>85.3</v>
+        <v>98.28</v>
       </c>
       <c r="H161" s="3">
-        <v>4.1399999999999997</v>
+        <v>2.41</v>
       </c>
       <c r="I161" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K161" s="3">
-        <v>5095032</v>
+        <v>3733072</v>
       </c>
       <c r="L161" s="3">
-        <v>111896</v>
+        <v>60781</v>
       </c>
       <c r="M161" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O161" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R161" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D162" s="4">
-        <v>3866100</v>
+        <v>2675357</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5481229676026569</v>
+        <f t="shared" si="4"/>
+        <v>2.4553155940706506</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G162" s="3">
-        <v>100</v>
+        <v>43.1</v>
       </c>
       <c r="H162" s="3">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I162" s="3">
         <v>0</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K162" s="3">
-        <v>3985648</v>
+        <v>2230073</v>
       </c>
       <c r="L162" s="3">
-        <v>107185</v>
+        <v>60755</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="R162" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>42</v>
+        <v>491</v>
       </c>
       <c r="D163" s="4">
-        <v>3137421</v>
+        <v>7254407</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="3"/>
-        <v>2.8793759884997536</v>
+        <f t="shared" si="4"/>
+        <v>6.6577502115924299</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G163" s="3">
-        <v>100</v>
+        <v>95.92</v>
       </c>
       <c r="H163" s="3">
-        <v>50.16</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I163" s="3">
-        <v>48.08</v>
+        <v>60</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K163" s="3">
-        <v>4201611</v>
+        <v>6248871</v>
       </c>
       <c r="L163" s="3">
-        <v>104897</v>
+        <v>78020</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P163" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>42</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="D164" s="4">
-        <v>2979373</v>
+        <v>672583</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="3"/>
-        <v>2.7343270402615638</v>
+        <f t="shared" si="4"/>
+        <v>0.6172647344660247</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G164" s="3">
-        <v>87.07</v>
+        <v>98.28</v>
       </c>
       <c r="H164" s="3">
-        <v>15.83</v>
+        <v>1.72</v>
       </c>
       <c r="I164" s="3">
-        <v>35.71</v>
+        <v>0</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K164" s="3">
-        <v>2281914</v>
+        <v>2115094</v>
       </c>
       <c r="L164" s="3">
-        <v>29841</v>
+        <v>166029</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>22</v>
@@ -11634,40 +11941,40 @@
         <v>81</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="R164" s="3" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="S164" s="3" t="s">
-        <v>80</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="D165" s="4">
-        <v>2770233</v>
+        <v>385355</v>
       </c>
       <c r="E165" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5423882809318985</v>
+        <f t="shared" si="4"/>
+        <v>0.35366051736388665</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G165" s="3">
-        <v>98.28</v>
+        <v>94.83</v>
       </c>
       <c r="H165" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I165" s="3">
         <v>0</v>
@@ -11676,415 +11983,415 @@
         <v>30</v>
       </c>
       <c r="K165" s="3">
-        <v>1886083</v>
+        <v>1560135</v>
       </c>
       <c r="L165" s="3">
-        <v>63947</v>
+        <v>45237</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="P165" s="3" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="R165" s="3" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D166" s="4">
-        <v>2675357</v>
+        <v>1034296</v>
       </c>
       <c r="E166" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4553155940706506</v>
+        <f t="shared" si="4"/>
+        <v>0.94922774705764412</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G166" s="3">
-        <v>43.1</v>
+        <v>87.07</v>
       </c>
       <c r="H166" s="3">
-        <v>0.86</v>
+        <v>5.52</v>
       </c>
       <c r="I166" s="3">
         <v>0</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K166" s="3">
-        <v>2230073</v>
+        <v>2734159</v>
       </c>
       <c r="L166" s="3">
-        <v>60755</v>
+        <v>32597</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P166" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="R166" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="S166" s="3" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>331</v>
+        <v>554</v>
       </c>
       <c r="D167" s="4">
-        <v>2479482</v>
+        <v>355930</v>
       </c>
       <c r="E167" s="5">
-        <f t="shared" si="3"/>
-        <v>2.275550821747335</v>
+        <f t="shared" si="4"/>
+        <v>0.32665564984320472</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G167" s="3">
-        <v>91.38</v>
+        <v>98.28</v>
       </c>
       <c r="H167" s="3">
-        <v>0.63</v>
+        <v>6.9</v>
       </c>
       <c r="I167" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K167" s="3">
-        <v>2596334</v>
+        <v>1719569</v>
       </c>
       <c r="L167" s="3">
-        <v>184133</v>
+        <v>55142</v>
       </c>
       <c r="M167" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="P167" s="3" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="R167" s="3" t="s">
-        <v>36</v>
+        <v>555</v>
       </c>
       <c r="S167" s="3" t="s">
-        <v>331</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="D168" s="4">
-        <v>2185146</v>
+        <v>269953</v>
       </c>
       <c r="E168" s="5">
-        <f t="shared" si="3"/>
-        <v>2.005423219824908</v>
+        <f t="shared" si="4"/>
+        <v>0.24775004254241748</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G168" s="3">
-        <v>68.97</v>
+        <v>81.58</v>
       </c>
       <c r="H168" s="3">
-        <v>0</v>
+        <v>41.96</v>
       </c>
       <c r="I168" s="3">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K168" s="3">
-        <v>1061122</v>
+        <v>3343933</v>
       </c>
       <c r="L168" s="3">
-        <v>61445</v>
+        <v>1724</v>
       </c>
       <c r="M168" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O168" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P168" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="R168" s="3" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="S168" s="3" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>42</v>
+        <v>537</v>
       </c>
       <c r="D169" s="4">
-        <v>2149344</v>
+        <v>480262</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9725658445666088</v>
+        <f t="shared" si="4"/>
+        <v>0.4407616545528536</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G169" s="3">
-        <v>22.07</v>
+        <v>88.37</v>
       </c>
       <c r="H169" s="3">
-        <v>5.12</v>
+        <v>27.96</v>
       </c>
       <c r="I169" s="3">
-        <v>85.71</v>
+        <v>2.56</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K169" s="3">
-        <v>691063</v>
+        <v>2920851</v>
       </c>
       <c r="L169" s="3">
-        <v>16161</v>
+        <v>2289</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P169" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>42</v>
+        <v>538</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>42</v>
+        <v>539</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>42</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>471</v>
+        <v>570</v>
       </c>
       <c r="D170" s="4">
-        <v>1968190</v>
+        <v>73323</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8063113068999441</v>
+        <f t="shared" si="4"/>
+        <v>6.7292367076260226E-2</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G170" s="3">
-        <v>98.28</v>
+        <v>74.41</v>
       </c>
       <c r="H170" s="3">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="I170" s="3">
         <v>0</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K170" s="3">
-        <v>3733072</v>
+        <v>1572721</v>
       </c>
       <c r="L170" s="3">
-        <v>60781</v>
+        <v>1575</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>56</v>
+        <v>408</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="P170" s="3" t="s">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="R170" s="3" t="s">
-        <v>102</v>
+        <v>572</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>471</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="D171" s="4">
-        <v>1791560</v>
+        <v>3137421</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="3"/>
-        <v>1.644208681575287</v>
+        <f t="shared" si="4"/>
+        <v>2.8793759884997536</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G171" s="3">
         <v>100</v>
       </c>
       <c r="H171" s="3">
-        <v>0</v>
+        <v>50.16</v>
       </c>
       <c r="I171" s="3">
-        <v>0</v>
+        <v>48.08</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K171" s="3">
-        <v>3420743</v>
+        <v>4201611</v>
       </c>
       <c r="L171" s="3">
-        <v>25113</v>
+        <v>104897</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O171" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="R171" s="3" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D172" s="4">
-        <v>1489659</v>
+        <v>532443</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3671382819368374</v>
+        <f t="shared" si="4"/>
+        <v>0.48865089812453422</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G172" s="3">
-        <v>96.55</v>
+        <v>94.83</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
@@ -12096,178 +12403,178 @@
         <v>30</v>
       </c>
       <c r="K172" s="3">
-        <v>2006304</v>
+        <v>1155837</v>
       </c>
       <c r="L172" s="3">
-        <v>149732</v>
+        <v>182779</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="P172" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="R172" s="3" t="s">
-        <v>309</v>
+        <v>532</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D173" s="4">
-        <v>1414343</v>
+        <v>324999</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2980168341139766</v>
+        <f t="shared" si="4"/>
+        <v>0.2982686470468679</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G173" s="3">
-        <v>68.97</v>
+        <v>96.55</v>
       </c>
       <c r="H173" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I173" s="3">
         <v>0</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K173" s="3">
-        <v>1840781</v>
+        <v>2588091</v>
       </c>
       <c r="L173" s="3">
-        <v>217838</v>
+        <v>59505</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="P173" s="3" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="R173" s="3" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="S173" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
       <c r="D174" s="4">
-        <v>1083037</v>
+        <v>471992</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="3"/>
-        <v>0.99395992200498673</v>
+        <f t="shared" si="4"/>
+        <v>0.43317184131934333</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G174" s="3">
-        <v>100</v>
+        <v>87.93</v>
       </c>
       <c r="H174" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I174" s="3">
         <v>0</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K174" s="3">
-        <v>1971828</v>
+        <v>2114028</v>
       </c>
       <c r="L174" s="3">
-        <v>88944</v>
+        <v>41156</v>
       </c>
       <c r="M174" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P174" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="R174" s="3" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>513</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>516</v>
+        <v>42</v>
       </c>
       <c r="D175" s="4">
-        <v>1034296</v>
+        <v>472172</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="3"/>
-        <v>0.94922774705764412</v>
+        <f t="shared" si="4"/>
+        <v>0.43333703677061691</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G175" s="3">
-        <v>87.07</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="H175" s="3">
-        <v>5.52</v>
+        <v>2.59</v>
       </c>
       <c r="I175" s="3">
         <v>0</v>
@@ -12276,10 +12583,10 @@
         <v>35</v>
       </c>
       <c r="K175" s="3">
-        <v>2734159</v>
+        <v>2405495</v>
       </c>
       <c r="L175" s="3">
-        <v>32597</v>
+        <v>7257</v>
       </c>
       <c r="M175" s="3" t="s">
         <v>22</v>
@@ -12291,103 +12598,103 @@
         <v>57</v>
       </c>
       <c r="P175" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R175" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="S175" s="3" t="s">
-        <v>516</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D176" s="4">
-        <v>833618</v>
-      </c>
-      <c r="E176" s="5">
-        <f t="shared" si="3"/>
-        <v>0.76505500944284732</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>574</v>
+        <v>522</v>
+      </c>
+      <c r="D176" s="8">
+        <v>795277</v>
+      </c>
+      <c r="E176" s="9">
+        <f t="shared" si="4"/>
+        <v>0.72986746056908469</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>577</v>
       </c>
       <c r="G176" s="3">
-        <v>82.76</v>
+        <v>89.66</v>
       </c>
       <c r="H176" s="3">
-        <v>1.88</v>
+        <v>24.14</v>
       </c>
       <c r="I176" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K176" s="3">
-        <v>2459239</v>
+        <v>2656984</v>
       </c>
       <c r="L176" s="3">
-        <v>77040</v>
+        <v>15596</v>
       </c>
       <c r="M176" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="P176" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="R176" s="3" t="s">
-        <v>519</v>
+        <v>299</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="D177" s="4">
-        <v>807536</v>
+        <v>1083037</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="3"/>
-        <v>0.74111818855331713</v>
+        <f t="shared" si="4"/>
+        <v>0.99395992200498673</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G177" s="3">
-        <v>96.55</v>
+        <v>100</v>
       </c>
       <c r="H177" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I177" s="3">
         <v>0</v>
@@ -12396,169 +12703,169 @@
         <v>30</v>
       </c>
       <c r="K177" s="3">
-        <v>2338948</v>
+        <v>1971828</v>
       </c>
       <c r="L177" s="3">
-        <v>63430</v>
+        <v>88944</v>
       </c>
       <c r="M177" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P177" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R177" s="3" t="s">
-        <v>202</v>
+        <v>514</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>522</v>
+        <v>331</v>
       </c>
       <c r="D178" s="4">
-        <v>795277</v>
+        <v>2479482</v>
       </c>
       <c r="E178" s="5">
-        <f t="shared" si="3"/>
-        <v>0.72986746056908469</v>
+        <f t="shared" si="4"/>
+        <v>2.275550821747335</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G178" s="3">
-        <v>89.66</v>
+        <v>91.38</v>
       </c>
       <c r="H178" s="3">
-        <v>24.14</v>
+        <v>0.63</v>
       </c>
       <c r="I178" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K178" s="3">
-        <v>2656984</v>
+        <v>2596334</v>
       </c>
       <c r="L178" s="3">
-        <v>15596</v>
+        <v>184133</v>
       </c>
       <c r="M178" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P178" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="R178" s="3" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="S178" s="3" t="s">
-        <v>522</v>
+        <v>331</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="D179" s="4">
-        <v>729905</v>
+        <v>1791560</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="3"/>
-        <v>0.66987214367657788</v>
+        <f t="shared" si="4"/>
+        <v>1.644208681575287</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G179" s="3">
-        <v>79.62</v>
+        <v>100</v>
       </c>
       <c r="H179" s="3">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I179" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K179" s="3">
-        <v>2295262</v>
+        <v>3420743</v>
       </c>
       <c r="L179" s="3">
-        <v>41442</v>
+        <v>25113</v>
       </c>
       <c r="M179" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P179" s="3" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="R179" s="3" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="S179" s="3" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="D180" s="4">
-        <v>719772</v>
+        <v>676058</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="3"/>
-        <v>0.66057255752238686</v>
+        <f t="shared" si="4"/>
+        <v>0.62045392442811031</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>574</v>
@@ -12567,7 +12874,7 @@
         <v>72.41</v>
       </c>
       <c r="H180" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I180" s="3">
         <v>0</v>
@@ -12576,10 +12883,10 @@
         <v>35</v>
       </c>
       <c r="K180" s="3">
-        <v>2098868</v>
+        <v>1966180</v>
       </c>
       <c r="L180" s="3">
-        <v>124180</v>
+        <v>81986</v>
       </c>
       <c r="M180" s="3" t="s">
         <v>22</v>
@@ -12597,49 +12904,49 @@
         <v>59</v>
       </c>
       <c r="R180" s="3" t="s">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="D181" s="4">
-        <v>676058</v>
+        <v>278953</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="3"/>
-        <v>0.62045392442811031</v>
+        <f t="shared" si="4"/>
+        <v>0.2560098151060925</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G181" s="3">
-        <v>72.41</v>
+        <v>96.55</v>
       </c>
       <c r="H181" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I181" s="3">
         <v>0</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K181" s="3">
-        <v>1966180</v>
+        <v>2457970</v>
       </c>
       <c r="L181" s="3">
-        <v>81986</v>
+        <v>40929</v>
       </c>
       <c r="M181" s="3" t="s">
         <v>22</v>
@@ -12651,55 +12958,55 @@
         <v>57</v>
       </c>
       <c r="P181" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="D182" s="4">
-        <v>672583</v>
+        <v>158122</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" ref="E182:E202" si="4">D182/108961838*100</f>
-        <v>0.6172647344660247</v>
+        <f t="shared" ref="E182:E213" si="5">D182/108961838*100</f>
+        <v>0.14511686192371315</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G182" s="3">
-        <v>98.28</v>
+        <v>76.8</v>
       </c>
       <c r="H182" s="3">
-        <v>1.72</v>
+        <v>5.17</v>
       </c>
       <c r="I182" s="3">
         <v>0</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K182" s="3">
-        <v>2115094</v>
+        <v>2118081</v>
       </c>
       <c r="L182" s="3">
-        <v>166029</v>
+        <v>5881</v>
       </c>
       <c r="M182" s="3" t="s">
         <v>22</v>
@@ -12711,55 +13018,55 @@
         <v>57</v>
       </c>
       <c r="P182" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="R182" s="3" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="D183" s="4">
-        <v>584103</v>
+        <v>178747</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="4"/>
-        <v>0.53606199264002874</v>
+        <f t="shared" si="5"/>
+        <v>0.16404550738213503</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G183" s="3">
-        <v>96.21</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="H183" s="3">
-        <v>1.72</v>
+        <v>3.76</v>
       </c>
       <c r="I183" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K183" s="3">
-        <v>2925602</v>
+        <v>1692656</v>
       </c>
       <c r="L183" s="3">
-        <v>34946</v>
+        <v>5219</v>
       </c>
       <c r="M183" s="3" t="s">
         <v>22</v>
@@ -12777,217 +13084,217 @@
         <v>59</v>
       </c>
       <c r="R183" s="3" t="s">
-        <v>319</v>
+        <v>566</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="D184" s="4">
-        <v>532443</v>
+        <v>199511</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="4"/>
-        <v>0.48865089812453422</v>
+        <f t="shared" si="5"/>
+        <v>0.18310172043904033</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G184" s="3">
-        <v>94.83</v>
+        <v>81.58</v>
       </c>
       <c r="H184" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I184" s="3">
         <v>0</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K184" s="3">
-        <v>1155837</v>
+        <v>1310094</v>
       </c>
       <c r="L184" s="3">
-        <v>182779</v>
+        <v>6792</v>
       </c>
       <c r="M184" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P184" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="R184" s="3" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
       <c r="D185" s="4">
-        <v>486062</v>
+        <v>51430</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="4"/>
-        <v>0.44608461909388863</v>
+        <f t="shared" si="5"/>
+        <v>4.7200011438867248E-2</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G185" s="3">
-        <v>84.25</v>
+        <v>40.68</v>
       </c>
       <c r="H185" s="3">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="I185" s="3">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K185" s="3">
-        <v>3094943</v>
+        <v>974214</v>
       </c>
       <c r="L185" s="3">
-        <v>11205</v>
+        <v>3197</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>535</v>
+        <v>42</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D186" s="4">
-        <v>480262</v>
+        <v>398342</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="4"/>
-        <v>0.4407616545528536</v>
+        <f t="shared" si="5"/>
+        <v>0.36557936917326961</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G186" s="3">
-        <v>88.37</v>
+        <v>92.04</v>
       </c>
       <c r="H186" s="3">
-        <v>27.96</v>
+        <v>0</v>
       </c>
       <c r="I186" s="3">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K186" s="3">
-        <v>2920851</v>
+        <v>1804862</v>
       </c>
       <c r="L186" s="3">
-        <v>2289</v>
+        <v>6302</v>
       </c>
       <c r="M186" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="P186" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="D187" s="4">
-        <v>472172</v>
+        <v>443802</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="4"/>
-        <v>0.43333703677061691</v>
+        <f t="shared" si="5"/>
+        <v>0.4073003981448991</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G187" s="3">
-        <v>75.319999999999993</v>
+        <v>73.84</v>
       </c>
       <c r="H187" s="3">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="I187" s="3">
         <v>0</v>
@@ -12996,10 +13303,10 @@
         <v>35</v>
       </c>
       <c r="K187" s="3">
-        <v>2405495</v>
+        <v>2761336</v>
       </c>
       <c r="L187" s="3">
-        <v>7257</v>
+        <v>12755</v>
       </c>
       <c r="M187" s="3" t="s">
         <v>22</v>
@@ -13011,55 +13318,55 @@
         <v>57</v>
       </c>
       <c r="P187" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>93</v>
+        <v>544</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
       <c r="D188" s="4">
-        <v>471992</v>
+        <v>486062</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="4"/>
-        <v>0.43317184131934333</v>
+        <f t="shared" si="5"/>
+        <v>0.44608461909388863</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G188" s="3">
-        <v>87.93</v>
+        <v>84.25</v>
       </c>
       <c r="H188" s="3">
-        <v>1.72</v>
+        <v>7.24</v>
       </c>
       <c r="I188" s="3">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K188" s="3">
-        <v>2114028</v>
+        <v>3094943</v>
       </c>
       <c r="L188" s="3">
-        <v>41156</v>
+        <v>11205</v>
       </c>
       <c r="M188" s="3" t="s">
         <v>22</v>
@@ -13077,49 +13384,49 @@
         <v>59</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>435</v>
+        <v>535</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D189" s="4">
-        <v>443802</v>
+        <v>584103</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="4"/>
-        <v>0.4073003981448991</v>
+        <f t="shared" si="5"/>
+        <v>0.53606199264002874</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G189" s="3">
-        <v>73.84</v>
+        <v>96.21</v>
       </c>
       <c r="H189" s="3">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="I189" s="3">
         <v>0</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K189" s="3">
-        <v>2761336</v>
+        <v>2925602</v>
       </c>
       <c r="L189" s="3">
-        <v>12755</v>
+        <v>34946</v>
       </c>
       <c r="M189" s="3" t="s">
         <v>22</v>
@@ -13137,109 +13444,109 @@
         <v>59</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>544</v>
+        <v>319</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="D190" s="4">
-        <v>398342</v>
+        <v>8531609</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="4"/>
-        <v>0.36557936917326961</v>
+        <f t="shared" si="5"/>
+        <v>7.8299055491336338</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G190" s="3">
-        <v>92.04</v>
+        <v>98.28</v>
       </c>
       <c r="H190" s="3">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="I190" s="3">
         <v>0</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K190" s="3">
-        <v>1804862</v>
+        <v>2217157</v>
       </c>
       <c r="L190" s="3">
-        <v>6302</v>
+        <v>93380</v>
       </c>
       <c r="M190" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="P190" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>547</v>
+        <v>26</v>
       </c>
       <c r="R190" s="3" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D191" s="4">
-        <v>392211</v>
+        <v>729905</v>
       </c>
       <c r="E191" s="5">
-        <f t="shared" si="4"/>
-        <v>0.35995262855239285</v>
+        <f t="shared" si="5"/>
+        <v>0.66987214367657788</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G191" s="3">
-        <v>96.55</v>
+        <v>79.62</v>
       </c>
       <c r="H191" s="3">
         <v>3.45</v>
       </c>
       <c r="I191" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K191" s="3">
-        <v>2315354</v>
+        <v>2295262</v>
       </c>
       <c r="L191" s="3">
-        <v>60600</v>
+        <v>41442</v>
       </c>
       <c r="M191" s="3" t="s">
         <v>22</v>
@@ -13254,52 +13561,52 @@
         <v>81</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="D192" s="4">
-        <v>385355</v>
+        <v>1414343</v>
       </c>
       <c r="E192" s="5">
-        <f t="shared" si="4"/>
-        <v>0.35366051736388665</v>
+        <f t="shared" si="5"/>
+        <v>1.2980168341139766</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G192" s="3">
-        <v>94.83</v>
+        <v>68.97</v>
       </c>
       <c r="H192" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I192" s="3">
         <v>0</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K192" s="3">
-        <v>1560135</v>
+        <v>1840781</v>
       </c>
       <c r="L192" s="3">
-        <v>45237</v>
+        <v>217838</v>
       </c>
       <c r="M192" s="3" t="s">
         <v>22</v>
@@ -13311,115 +13618,115 @@
         <v>57</v>
       </c>
       <c r="P192" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>552</v>
+        <v>142</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>551</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>554</v>
+        <v>69</v>
       </c>
       <c r="D193" s="4">
-        <v>355930</v>
+        <v>3866100</v>
       </c>
       <c r="E193" s="5">
-        <f t="shared" si="4"/>
-        <v>0.32665564984320472</v>
+        <f t="shared" si="5"/>
+        <v>3.5481229676026569</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G193" s="3">
-        <v>98.28</v>
+        <v>100</v>
       </c>
       <c r="H193" s="3">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="I193" s="3">
         <v>0</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K193" s="3">
-        <v>1719569</v>
+        <v>3985648</v>
       </c>
       <c r="L193" s="3">
-        <v>55142</v>
+        <v>107185</v>
       </c>
       <c r="M193" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P193" s="3" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>555</v>
+        <v>71</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>554</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>522</v>
+        <v>85</v>
       </c>
       <c r="D194" s="4">
-        <v>334599</v>
+        <v>392211</v>
       </c>
       <c r="E194" s="5">
-        <f t="shared" si="4"/>
-        <v>0.30707907111478794</v>
+        <f t="shared" si="5"/>
+        <v>0.35995262855239285</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G194" s="3">
-        <v>50</v>
+        <v>96.55</v>
       </c>
       <c r="H194" s="3">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I194" s="3">
         <v>0</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K194" s="3">
-        <v>1053962</v>
+        <v>2315354</v>
       </c>
       <c r="L194" s="3">
-        <v>31599</v>
+        <v>60600</v>
       </c>
       <c r="M194" s="3" t="s">
         <v>22</v>
@@ -13431,34 +13738,34 @@
         <v>57</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="R194" s="3" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>522</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="D195" s="4">
-        <v>324999</v>
+        <v>1489659</v>
       </c>
       <c r="E195" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2982686470468679</v>
+        <f t="shared" si="5"/>
+        <v>1.3671382819368374</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>574</v>
@@ -13467,7 +13774,7 @@
         <v>96.55</v>
       </c>
       <c r="H195" s="3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I195" s="3">
         <v>0</v>
@@ -13476,58 +13783,58 @@
         <v>30</v>
       </c>
       <c r="K195" s="3">
-        <v>2588091</v>
+        <v>2006304</v>
       </c>
       <c r="L195" s="3">
-        <v>59505</v>
+        <v>149732</v>
       </c>
       <c r="M195" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P195" s="3" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="R195" s="3" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D196" s="4">
-        <v>278953</v>
+        <v>807536</v>
       </c>
       <c r="E196" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2560098151060925</v>
+        <f t="shared" si="5"/>
+        <v>0.74111818855331713</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G196" s="3">
         <v>96.55</v>
       </c>
       <c r="H196" s="3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I196" s="3">
         <v>0</v>
@@ -13536,10 +13843,10 @@
         <v>30</v>
       </c>
       <c r="K196" s="3">
-        <v>2457970</v>
+        <v>2338948</v>
       </c>
       <c r="L196" s="3">
-        <v>40929</v>
+        <v>63430</v>
       </c>
       <c r="M196" s="3" t="s">
         <v>22</v>
@@ -13551,223 +13858,223 @@
         <v>57</v>
       </c>
       <c r="P196" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q196" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S196" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="4">
+        <v>10174182</v>
+      </c>
+      <c r="E197" s="5">
+        <f t="shared" si="5"/>
+        <v>9.3373810379373374</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G197" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="H197" s="7">
+        <v>5.17</v>
+      </c>
+      <c r="I197" s="7">
+        <v>0</v>
+      </c>
+      <c r="J197" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K197" s="7">
+        <v>3203587</v>
+      </c>
+      <c r="L197" s="7">
+        <v>72664</v>
+      </c>
+      <c r="M197" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N197" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O197" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P197" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q197" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R197" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S197" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D198" s="4">
+        <v>6267575</v>
+      </c>
+      <c r="E198" s="5">
+        <f t="shared" si="5"/>
+        <v>5.7520826695305924</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G198" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="H198" s="7">
+        <v>0</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K198" s="7">
+        <v>2046239</v>
+      </c>
+      <c r="L198" s="7">
+        <v>84624</v>
+      </c>
+      <c r="M198" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N198" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O198" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P198" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q196" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R196" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="S196" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D197" s="4">
-        <v>269953</v>
-      </c>
-      <c r="E197" s="5">
-        <f t="shared" si="4"/>
-        <v>0.24775004254241748</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G197" s="3">
-        <v>81.58</v>
-      </c>
-      <c r="H197" s="3">
-        <v>41.96</v>
-      </c>
-      <c r="I197" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J197" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K197" s="3">
-        <v>3343933</v>
-      </c>
-      <c r="L197" s="3">
-        <v>1724</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N197" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O197" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P197" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q197" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="R197" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="S197" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D198" s="4">
-        <v>199511</v>
-      </c>
-      <c r="E198" s="5">
-        <f t="shared" si="4"/>
-        <v>0.18310172043904033</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G198" s="3">
-        <v>81.58</v>
-      </c>
-      <c r="H198" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="I198" s="3">
-        <v>0</v>
-      </c>
-      <c r="J198" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K198" s="3">
-        <v>1310094</v>
-      </c>
-      <c r="L198" s="3">
-        <v>6792</v>
-      </c>
-      <c r="M198" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N198" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O198" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P198" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q198" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R198" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="S198" s="3" t="s">
-        <v>563</v>
+      <c r="Q198" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R198" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S198" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="D199" s="4">
-        <v>178747</v>
+        <v>833618</v>
       </c>
       <c r="E199" s="5">
-        <f t="shared" si="4"/>
-        <v>0.16404550738213503</v>
+        <f t="shared" si="5"/>
+        <v>0.76505500944284732</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G199" s="3">
-        <v>72.180000000000007</v>
+        <v>82.76</v>
       </c>
       <c r="H199" s="3">
-        <v>3.76</v>
+        <v>1.88</v>
       </c>
       <c r="I199" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J199" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K199" s="3">
-        <v>1692656</v>
+        <v>2459239</v>
       </c>
       <c r="L199" s="3">
-        <v>5219</v>
+        <v>77040</v>
       </c>
       <c r="M199" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P199" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="R199" s="3" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>568</v>
+        <v>132</v>
       </c>
       <c r="D200" s="4">
-        <v>158122</v>
+        <v>719772</v>
       </c>
       <c r="E200" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14511686192371315</v>
+        <f t="shared" si="5"/>
+        <v>0.66057255752238686</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G200" s="3">
-        <v>76.8</v>
+        <v>72.41</v>
       </c>
       <c r="H200" s="3">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="I200" s="3">
         <v>0</v>
@@ -13776,10 +14083,10 @@
         <v>35</v>
       </c>
       <c r="K200" s="3">
-        <v>2118081</v>
+        <v>2098868</v>
       </c>
       <c r="L200" s="3">
-        <v>5881</v>
+        <v>124180</v>
       </c>
       <c r="M200" s="3" t="s">
         <v>22</v>
@@ -13794,97 +14101,97 @@
         <v>58</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="R200" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S200" s="3" t="s">
-        <v>568</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>570</v>
+        <v>38</v>
       </c>
       <c r="D201" s="4">
-        <v>73323</v>
+        <v>6139794</v>
       </c>
       <c r="E201" s="5">
-        <f t="shared" si="4"/>
-        <v>6.7292367076260226E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.6348113364240424</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G201" s="3">
-        <v>74.41</v>
+        <v>95.4</v>
       </c>
       <c r="H201" s="3">
-        <v>2.46</v>
+        <v>40.86</v>
       </c>
       <c r="I201" s="3">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K201" s="3">
-        <v>1572721</v>
+        <v>4201582</v>
       </c>
       <c r="L201" s="3">
-        <v>1575</v>
+        <v>104572</v>
       </c>
       <c r="M201" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>409</v>
+        <v>24</v>
       </c>
       <c r="P201" s="3" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>571</v>
+        <v>26</v>
       </c>
       <c r="R201" s="3" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>570</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D202" s="4">
-        <v>51430</v>
-      </c>
-      <c r="E202" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7200011438867248E-2</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>574</v>
+        <v>522</v>
+      </c>
+      <c r="D202" s="8">
+        <v>334599</v>
+      </c>
+      <c r="E202" s="9">
+        <f t="shared" si="5"/>
+        <v>0.30707907111478794</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>577</v>
       </c>
       <c r="G202" s="3">
-        <v>40.68</v>
+        <v>50</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
@@ -13893,40 +14200,45 @@
         <v>0</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K202" s="3">
-        <v>974214</v>
+        <v>1053962</v>
       </c>
       <c r="L202" s="3">
-        <v>3197</v>
+        <v>31599</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P202" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="R202" s="3" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="S202" s="3" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D203" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S203" xr:uid="{5A89D76E-36ED-1D4B-997C-83AC48C015F4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S203">
+      <sortCondition ref="A1:A203"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>